--- a/docs/OptionsCombination.xlsx
+++ b/docs/OptionsCombination.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>disableExpandCollapse</t>
   </si>
@@ -56,15 +56,6 @@
     <t>Collapsed</t>
   </si>
   <si>
-    <t>disableExpandCollapse, hideOnExpand</t>
-  </si>
-  <si>
-    <t>disableExpandCollapse, hideOnExpand, collapseAt</t>
-  </si>
-  <si>
-    <t>disableExpandCollapse, hideOnExpand, collapseAt, disableFrom</t>
-  </si>
-  <si>
     <t>hideOnExpand, collapseAt</t>
   </si>
   <si>
@@ -156,9 +147,6 @@
     <t>disableExpandCollapse, collapseAt</t>
   </si>
   <si>
-    <t>disableExpandCollapse, collapseAt, disableFrom</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">disableExpandCollapse, </t>
     </r>
@@ -210,13 +198,63 @@
       </rPr>
       <t>disableFrom</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">disableExpandCollapse, hideOnExpand, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>collapseAt</t>
+    </r>
+  </si>
+  <si>
+    <t>Yes ( &lt; collapseAt)</t>
+  </si>
+  <si>
+    <t>Yes ( &lt; disableFrom)</t>
+  </si>
+  <si>
+    <t>Yes ( &gt;= collapseAt)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">disableExpandCollapse, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hideOnExpand</t>
+    </r>
+  </si>
+  <si>
+    <t>disableExpandCollapse, hideOnExpand, collapseAt &lt; disableFrom</t>
+  </si>
+  <si>
+    <t>Yes ( &gt;= disableFrom)</t>
+  </si>
+  <si>
+    <t>disableExpandCollapse, collapseAt &lt; disableFrom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +286,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -269,11 +315,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,179 +629,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:I20"/>
+  <dimension ref="B4:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="G20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>7</v>
       </c>
     </row>

--- a/docs/OptionsCombination.xlsx
+++ b/docs/OptionsCombination.xlsx
@@ -632,7 +632,7 @@
   <dimension ref="B4:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
